--- a/aspnet-core/aspnet-core/src/GYSWP.Web.Host/wwwroot/files/downloadtemp/巡查记录表.xlsx
+++ b/aspnet-core/aspnet-core/src/GYSWP.Web.Host/wwwroot/files/downloadtemp/巡查记录表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
   <si>
     <t xml:space="preserve">门窗、锁有无异常</t>
   </si>
@@ -57,6 +57,33 @@
   </si>
   <si>
     <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨杰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-08 16:03:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-08 10:07:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-29 14:13:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-29 11:39:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-27 16:45:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-18 16:19:37</t>
   </si>
   <si>
     <t xml:space="preserve">赵康辰</t>
@@ -79,11 +106,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="0.55"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="0.55"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -170,13 +197,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -195,6 +222,234 @@
       </c>
       <c r="L2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
